--- a/bots/crawl_ch/output/bread_coop_2023-01-08.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-08.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Reiswaffeln Fair Trade Milchschokolade 1.30 Schweizer Franken</t>
+          <t>Reiswaffeln Fair Trade Milchschokolade - Online kein Bestand 1.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6218,7 +6218,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6502,7 +6502,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6571,7 +6571,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6790,7 +6790,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6863,7 +6863,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6936,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7078,7 +7078,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7214,7 +7214,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Blätterteig ausgewallt 2.40 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Blätterteig ausgewallt - Online kein Bestand 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7512,7 +7512,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7654,7 +7654,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7788,7 +7788,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7930,7 +7930,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -7999,7 +7999,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8072,7 +8072,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8425,7 +8425,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8705,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8924,7 +8924,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -8993,7 +8993,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9066,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9212,7 +9212,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9354,7 +9354,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9423,7 +9423,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9707,7 +9707,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9776,7 +9776,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9918,7 +9918,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -9987,7 +9987,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10129,7 +10129,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10198,7 +10198,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10267,7 +10267,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10482,7 +10482,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10766,7 +10766,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10835,7 +10835,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10904,7 +10904,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11046,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11119,7 +11119,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11192,7 +11192,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11261,7 +11261,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11330,7 +11330,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11399,7 +11399,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11468,7 +11468,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11614,7 +11614,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11687,7 +11687,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11756,7 +11756,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11829,7 +11829,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11898,7 +11898,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -11971,7 +11971,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12117,7 +12117,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12190,7 +12190,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12263,7 +12263,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12332,7 +12332,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12405,7 +12405,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12474,7 +12474,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12543,7 +12543,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12612,7 +12612,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12681,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12750,7 +12750,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12819,7 +12819,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12892,7 +12892,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -12961,7 +12961,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13034,7 +13034,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13103,7 +13103,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13172,7 +13172,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13245,7 +13245,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13318,7 +13318,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13460,7 +13460,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13533,7 +13533,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13602,7 +13602,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13675,7 +13675,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13744,7 +13744,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13813,7 +13813,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13886,7 +13886,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -13955,7 +13955,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14024,7 +14024,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14166,7 +14166,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14239,7 +14239,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14381,7 +14381,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14454,7 +14454,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14527,7 +14527,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14596,7 +14596,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14669,7 +14669,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14738,7 +14738,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14811,7 +14811,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -14957,7 +14957,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15030,7 +15030,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15099,7 +15099,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15245,7 +15245,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15314,7 +15314,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15383,7 +15383,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15452,7 +15452,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15521,7 +15521,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15590,7 +15590,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15659,7 +15659,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15728,7 +15728,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15801,7 +15801,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15870,7 +15870,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -15943,7 +15943,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16089,7 +16089,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16158,7 +16158,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16231,7 +16231,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16300,7 +16300,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16373,7 +16373,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16442,7 +16442,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16584,7 +16584,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16653,7 +16653,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16722,7 +16722,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16795,7 +16795,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16864,7 +16864,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -16937,7 +16937,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17010,7 +17010,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17152,7 +17152,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17221,7 +17221,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17290,7 +17290,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17359,7 +17359,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17574,7 +17574,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17643,7 +17643,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17710,7 +17710,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17779,7 +17779,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17850,7 +17850,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17919,7 +17919,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -17988,7 +17988,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18057,7 +18057,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18126,7 +18126,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18199,7 +18199,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18268,7 +18268,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18337,7 +18337,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18410,7 +18410,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18479,7 +18479,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18548,7 +18548,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18617,7 +18617,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18688,7 +18688,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18761,7 +18761,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18830,7 +18830,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18899,7 +18899,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -18968,7 +18968,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19041,7 +19041,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19114,7 +19114,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19187,7 +19187,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19256,7 +19256,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19329,7 +19329,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19402,7 +19402,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19471,7 +19471,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19540,7 +19540,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19609,7 +19609,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19751,7 +19751,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19824,7 +19824,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19897,7 +19897,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -19966,7 +19966,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20035,7 +20035,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20104,7 +20104,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20171,7 +20171,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20244,7 +20244,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20313,7 +20313,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20380,7 +20380,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20453,7 +20453,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20522,7 +20522,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20591,7 +20591,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20664,7 +20664,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20733,7 +20733,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20806,7 +20806,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -20952,7 +20952,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21025,7 +21025,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21094,7 +21094,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21167,7 +21167,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21236,7 +21236,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21309,7 +21309,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21378,7 +21378,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21447,7 +21447,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21589,7 +21589,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21662,7 +21662,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21735,7 +21735,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21804,7 +21804,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -21946,7 +21946,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22019,7 +22019,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22088,7 +22088,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22157,7 +22157,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22226,7 +22226,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22295,7 +22295,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22364,7 +22364,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22433,7 +22433,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22502,7 +22502,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22575,7 +22575,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22644,7 +22644,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22786,7 +22786,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22855,7 +22855,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22928,7 +22928,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -22997,7 +22997,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23066,7 +23066,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23135,7 +23135,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23204,7 +23204,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23342,7 +23342,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23411,7 +23411,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23484,7 +23484,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23553,7 +23553,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23622,7 +23622,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23695,7 +23695,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23764,7 +23764,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23833,7 +23833,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23902,7 +23902,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -23975,7 +23975,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24044,7 +24044,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24113,7 +24113,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24182,7 +24182,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24251,7 +24251,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24320,7 +24320,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24389,7 +24389,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24458,7 +24458,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24527,7 +24527,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24596,7 +24596,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24669,7 +24669,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24738,7 +24738,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24807,7 +24807,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24876,7 +24876,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -24945,7 +24945,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25012,7 +25012,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25085,7 +25085,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25154,7 +25154,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25227,7 +25227,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25294,7 +25294,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25363,7 +25363,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25432,7 +25432,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25501,7 +25501,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25570,7 +25570,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25639,7 +25639,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25708,7 +25708,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25777,7 +25777,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25848,7 +25848,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25915,7 +25915,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -25984,7 +25984,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26057,7 +26057,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26130,7 +26130,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26203,7 +26203,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26272,7 +26272,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26339,7 +26339,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26485,7 +26485,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26554,7 +26554,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26623,7 +26623,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26696,7 +26696,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26767,7 +26767,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26840,7 +26840,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26907,7 +26907,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -26980,7 +26980,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27053,7 +27053,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27120,7 +27120,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27189,7 +27189,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27262,7 +27262,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27331,7 +27331,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27404,7 +27404,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27477,7 +27477,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27548,7 +27548,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27615,7 +27615,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27682,7 +27682,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27755,7 +27755,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27828,7 +27828,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27897,7 +27897,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -27966,7 +27966,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28033,7 +28033,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28102,7 +28102,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28171,7 +28171,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28240,7 +28240,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28307,7 +28307,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28376,7 +28376,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28445,7 +28445,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28512,7 +28512,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
@@ -28581,7 +28581,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-08 12:54:58</t>
+          <t>2023-01-08 20:49:47</t>
         </is>
       </c>
     </row>
